--- a/06-03-2023/data/output/xlsx/sample_0/category__10.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__10.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="145">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,7 +52,7 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
@@ -61,6 +61,42 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -88,51 +124,195 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_unknowns__1,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -163,9 +343,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -196,136 +373,40 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
@@ -335,87 +416,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -571,30 +571,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.002042900919305414</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.001210653753026634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003236245954692557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005050505050505051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009523809523809525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01265822784810127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,30 +871,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.002006018054162487</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.002018163471241171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001855287569573284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004901960784313725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.007352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0108695652173913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,30 +1183,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.002004008016032064</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.002928257686676428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01052631578947368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,30 +1333,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.005025125628140704</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.006369426751592357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,91 +2023,99 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="E5" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.006707229902287242</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.008715356258204852</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E7" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.013156265208172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E8" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.01607420618337894</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2059,10 +2133,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -2080,10 +2154,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -2101,10 +2175,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2122,10 +2196,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2143,94 +2217,86 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.003236245954692557</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.006707229902287241</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.005050505050505051</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.008715356258204852</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009523809523809525</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.013156265208172</v>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01265822784810127</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.01607420618337894</v>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2238,7 +2304,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2259,7 +2325,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2280,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2301,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2322,30 +2388,28 @@
         <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.003215434083601286</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.008164224676022885</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -2363,10 +2427,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -2384,10 +2448,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2405,10 +2469,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2426,10 +2490,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2447,10 +2511,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2468,10 +2532,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2489,10 +2553,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2510,10 +2574,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2531,10 +2595,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2552,7 +2616,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2573,10 +2637,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2594,10 +2658,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2615,23 +2679,25 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.002006018054162487</v>
       </c>
       <c r="E36" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.006380170772942585</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2639,34 +2705,36 @@
         <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.002018163471241171</v>
       </c>
       <c r="E37" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.006388187472066764</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="E38" s="1">
         <v>0.002004008016032064</v>
@@ -2678,94 +2746,102 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="E39" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.006114980158626134</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E40" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.007787722582611924</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="E41" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
+      <c r="F41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.01048353303407479</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E42" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.01422434007848596</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2783,10 +2859,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2804,10 +2880,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -2825,10 +2901,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2846,10 +2922,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2867,10 +2943,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -2888,10 +2964,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -2909,98 +2985,100 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E50" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>12</v>
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.008226967561849555</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="E51" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>12</v>
+      <c r="F51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.01013503475010756</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.002006018054162487</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E52" s="1">
         <v>0.002004008016032064</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G52" s="1">
-        <v>0.006380170772942585</v>
+        <v>0.01764189495793798</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.002018163471241171</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.006388187472066763</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3018,10 +3096,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3039,10 +3117,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3060,10 +3138,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3081,16 +3159,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.001855287569573284</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.002004008016032064</v>
@@ -3102,102 +3180,94 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.002906976744186046</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.006114980158626134</v>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.007787722582611924</v>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.007352941176470588</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.01048353303407479</v>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.01422434007848596</v>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3215,10 +3285,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3236,31 +3306,33 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.003215434083601286</v>
       </c>
       <c r="E65" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>12</v>
+      <c r="F65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.008164224676022883</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -3278,10 +3350,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -3299,10 +3371,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -3320,10 +3392,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3341,10 +3413,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3362,10 +3434,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3383,10 +3455,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3404,10 +3476,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3425,10 +3497,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3446,10 +3518,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3467,10 +3539,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3488,10 +3560,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3509,10 +3581,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3530,10 +3602,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3551,16 +3623,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.002004008016032064</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.002004008016032064</v>
@@ -3572,33 +3644,31 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.002928257686676428</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.008214453885459647</v>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3616,10 +3686,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3637,10 +3707,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3658,33 +3728,31 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.01888616484408781</v>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3702,10 +3770,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3723,10 +3791,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3744,10 +3812,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3765,10 +3833,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3786,10 +3854,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3807,10 +3875,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3828,25 +3896,23 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.008226967561849555</v>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3854,36 +3920,34 @@
         <v>116</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.006369426751592357</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.01013503475010756</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="E95" s="1">
         <v>0.002004008016032064</v>
@@ -3895,23 +3959,25 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.002928257686676428</v>
       </c>
       <c r="E96" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>12</v>
+      <c r="F96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.008214453885459647</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3919,28 +3985,30 @@
         <v>120</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E97" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>12</v>
+      <c r="F97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.01888616484408781</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -3958,10 +4026,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -3979,25 +4047,23 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.01764189495793798</v>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4005,7 +4071,7 @@
         <v>125</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4026,7 +4092,7 @@
         <v>126</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4047,7 +4113,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4068,7 +4134,7 @@
         <v>128</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4089,7 +4155,7 @@
         <v>129</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4110,7 +4176,7 @@
         <v>130</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4131,7 +4197,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4154,7 +4220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4292,6 +4358,178 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.003236245954692557</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.001232237938660493</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.005050505050505051</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.003046497034472987</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.00751980150777746</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0106542198320692</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4366,7 +4604,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4423,7 +4661,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4466,7 +4704,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4504,6 +4742,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.001855287569573284</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.0001487204464587801</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.002906976744186046</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.0009029687281539825</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.004901960784313725</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.002897952768281661</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.007352941176470588</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.005348933160438524</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.00886555720135924</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -4572,7 +5025,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4621,7 +5074,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4678,7 +5131,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4721,7 +5174,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -4759,6 +5212,49 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.00852230777344162</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
         <v>0</v>
       </c>
     </row>
@@ -4770,7 +5266,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4827,7 +5323,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -4870,7 +5366,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -4908,6 +5404,49 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.002004008016032064</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01132932531730127</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__10.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__10.xlsx
@@ -52,7 +52,7 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
@@ -64,25 +64,25 @@
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
@@ -124,6 +124,159 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
@@ -166,82 +319,67 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_unknowns__1,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -278,144 +416,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__0,num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.006707229902287242</v>
+        <v>0.006707229902287241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2388,28 +2388,30 @@
         <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>0.003215434083601286</v>
       </c>
       <c r="E22" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.008164224676022885</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -2427,10 +2429,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -2448,10 +2450,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2469,10 +2471,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2490,10 +2492,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2511,10 +2513,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2532,10 +2534,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2553,10 +2555,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2574,10 +2576,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2595,10 +2597,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2616,10 +2618,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2637,10 +2639,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2658,10 +2660,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2679,25 +2681,23 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.002006018054162487</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.006380170772942585</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2705,36 +2705,34 @@
         <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.002018163471241171</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.006388187472066764</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.001855287569573284</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.002004008016032064</v>
@@ -2746,102 +2744,94 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.002906976744186046</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.006114980158626134</v>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.004901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.007787722582611924</v>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007352941176470588</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.01048353303407479</v>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.01422434007848596</v>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2859,10 +2849,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2880,10 +2870,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -2901,10 +2891,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2922,10 +2912,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2943,7 +2933,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2964,7 +2954,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2985,106 +2975,104 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.008226967561849555</v>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006369426751592357</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.01013503475010756</v>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01333333333333333</v>
+        <v>0.002006018054162487</v>
       </c>
       <c r="E52" s="1">
         <v>0.002004008016032064</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G52" s="1">
-        <v>0.01764189495793798</v>
+        <v>0.006380170772942585</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.002018163471241171</v>
       </c>
       <c r="E53" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>12</v>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.006388187472066763</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="E54" s="1">
         <v>0.002004008016032064</v>
@@ -3096,94 +3084,102 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="E55" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
+      <c r="F55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.006114980158626134</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E56" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
+      <c r="F56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.007787722582611924</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="E57" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>12</v>
+      <c r="F57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.01048353303407479</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E58" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>12</v>
+      <c r="F58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.01422434007848596</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -3201,10 +3197,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3222,10 +3218,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3243,10 +3239,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3264,10 +3260,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3285,7 +3281,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3306,33 +3302,31 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003215434083601286</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.008164224676022883</v>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -3350,10 +3344,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -3371,10 +3365,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -3392,10 +3386,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3413,10 +3407,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3434,10 +3428,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3455,10 +3449,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3476,10 +3470,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3497,10 +3491,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3518,10 +3512,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3539,10 +3533,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3560,10 +3554,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3581,10 +3575,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3602,10 +3596,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3623,16 +3617,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="E80" s="1">
         <v>0.002004008016032064</v>
@@ -3644,52 +3638,56 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.002928257686676428</v>
       </c>
       <c r="E81" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>12</v>
+      <c r="F81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.008214453885459647</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E82" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>12</v>
+      <c r="F82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.01888616484408781</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3707,10 +3705,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3728,10 +3726,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3749,10 +3747,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3770,10 +3768,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3791,10 +3789,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3812,10 +3810,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3833,10 +3831,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3854,7 +3852,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -3875,7 +3873,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3896,23 +3894,25 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E93" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>12</v>
+      <c r="F93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.008226967561849555</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3920,87 +3920,87 @@
         <v>116</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="E94" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>12</v>
+      <c r="F94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.01013503475010756</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.002004008016032064</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E95" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>12</v>
+      <c r="F95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.01764189495793798</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.002928257686676428</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.008214453885459647</v>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0.002004008016032064</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.01888616484408781</v>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4008,7 +4008,7 @@
         <v>122</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -4029,7 +4029,7 @@
         <v>123</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4050,7 +4050,7 @@
         <v>124</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4071,7 +4071,7 @@
         <v>125</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4092,7 +4092,7 @@
         <v>126</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4113,7 +4113,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
